--- a/tests/testthat/fixtures/ex3/tables/mv_person_booklet2.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/mv_person_booklet2.xlsx
@@ -49,9 +49,6 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
     <t xml:space="preserve">OM</t>
   </si>
   <si>
@@ -67,25 +64,28 @@
     <t xml:space="preserve">ALL</t>
   </si>
   <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.23</t>
   </si>
   <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35</t>
+    <t xml:space="preserve">1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>79.38</v>
+        <v>78.85</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>18.37</v>
+        <v>19.19</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +454,15 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>
@@ -484,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>94.81</v>
+        <v>94.68</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>5.05</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="4">
@@ -530,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>70.83</v>
+        <v>70.73</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>11.78</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>7.29</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4.07</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>3.37</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="7">
@@ -570,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1.68</v>
+        <v>0.56</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.56</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="9">
@@ -586,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>50.63</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>27.21</v>
+        <v>27.73</v>
       </c>
     </row>
     <row r="4">
@@ -662,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>9.82</v>
+        <v>8.96</v>
       </c>
     </row>
     <row r="5">
@@ -670,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>5.61</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="6">
@@ -678,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>3.79</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="7">
@@ -686,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1.82</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -694,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.56</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9">
@@ -702,15 +710,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -729,44 +729,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
